--- a/Dudov_Climat_Kamchatka/R_calc_Dudov_Kamchatkf/Data/bioclim.xlsx
+++ b/Dudov_Climat_Kamchatka/R_calc_Dudov_Kamchatkf/Data/bioclim.xlsx
@@ -8,16 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Text\Article\Articles_in_progress\Dudov_Climat_Kamchatka\R_calc_Dudov_Kamchatkf\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA7BBE7-FCB8-48B7-8C35-AA7D626331BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E8DE0B-AF90-4999-B8D6-A7F6ECD2E6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="climat_full" sheetId="2" r:id="rId1"/>
     <sheet name="read me" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet 1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -864,9 +875,9 @@
       <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -934,7 +945,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1002,7 +1013,7 @@
         <v>0.67953717601852304</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1070,7 +1081,7 @@
         <v>0.79721554945753903</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1138,7 +1149,7 @@
         <v>1.0574186618666701</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1206,7 +1217,7 @@
         <v>1.17635647184994</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1274,7 +1285,7 @@
         <v>3.8592430315766001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1342,7 +1353,7 @@
         <v>0.13085601944761599</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1410,7 +1421,7 @@
         <v>-0.44163056278912399</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1478,7 +1489,7 @@
         <v>1.03602616556173</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1546,7 +1557,7 @@
         <v>-0.27999947257835001</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1614,7 +1625,7 @@
         <v>-0.99312664767554804</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1682,7 +1693,7 @@
         <v>0.61809664018663901</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1750,7 +1761,7 @@
         <v>0.30783605353508697</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1818,7 +1829,7 @@
         <v>0.33381766253350298</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1886,7 +1897,7 @@
         <v>1.3082965717863E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1954,7 +1965,7 @@
         <v>0.93314420192063696</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -2022,7 +2033,7 @@
         <v>-0.234281283609626</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -2090,7 +2101,7 @@
         <v>0.38998317383396602</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -2158,7 +2169,7 @@
         <v>1.0216105968639</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -2226,7 +2237,7 @@
         <v>1.5204010513734201</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -2294,7 +2305,7 @@
         <v>-0.90406970424806599</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -2362,7 +2373,7 @@
         <v>-1.51779672889949</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -2430,7 +2441,7 @@
         <v>1.1240628045826799</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -2498,7 +2509,7 @@
         <v>0.64982849372867602</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -2566,7 +2577,7 @@
         <v>-9.8790302721428302E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -2634,7 +2645,7 @@
         <v>-0.48736356898590899</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -2702,7 +2713,7 @@
         <v>0.89802889032292899</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -2770,7 +2781,7 @@
         <v>0.48961248883515401</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -2838,7 +2849,7 @@
         <v>-0.78734383283929599</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -2906,7 +2917,7 @@
         <v>0.65162938817633298</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -2974,7 +2985,7 @@
         <v>1.00749906350124</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -3042,7 +3053,7 @@
         <v>2.96441986522737E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -3110,7 +3121,7 @@
         <v>0.64910668682657602</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -3178,7 +3189,7 @@
         <v>0.92866605315546202</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -3246,7 +3257,7 @@
         <v>-0.21704165150949301</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -3314,7 +3325,7 @@
         <v>-0.72840995143416598</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -3382,7 +3393,7 @@
         <v>-0.58437571477070205</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -3450,7 +3461,7 @@
         <v>-0.73277715320937598</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -3518,7 +3529,7 @@
         <v>-0.53621904040168</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -3586,7 +3597,7 @@
         <v>0.309218510153142</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -3654,7 +3665,7 @@
         <v>0.63763431117513103</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -3722,7 +3733,7 @@
         <v>0.100337408869644</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -3790,7 +3801,7 @@
         <v>0.98967759496949803</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>62</v>
       </c>
@@ -3858,7 +3869,7 @@
         <v>1.28784485313269</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>63</v>
       </c>
@@ -3926,7 +3937,7 @@
         <v>0.67766271575313597</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>64</v>
       </c>
@@ -3994,7 +4005,7 @@
         <v>0.34710646568601</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -4062,7 +4073,7 @@
         <v>0.36259023677150198</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -4130,7 +4141,7 @@
         <v>0.46541993637655599</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>67</v>
       </c>
@@ -4198,7 +4209,7 @@
         <v>-0.51410674787300703</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>68</v>
       </c>
@@ -4266,7 +4277,7 @@
         <v>-0.45566630712341299</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>69</v>
       </c>
@@ -4334,7 +4345,7 @@
         <v>0.88004056161223199</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>70</v>
       </c>
@@ -4402,7 +4413,7 @@
         <v>-0.75985393180550298</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>71</v>
       </c>
@@ -4470,7 +4481,7 @@
         <v>6.9718429403554993E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>72</v>
       </c>
@@ -4538,7 +4549,7 @@
         <v>0.67439006378796196</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>73</v>
       </c>
@@ -4606,7 +4617,7 @@
         <v>-0.76990143289748703</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>74</v>
       </c>
@@ -4674,7 +4685,7 @@
         <v>-0.26313048233025699</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>75</v>
       </c>
@@ -4742,7 +4753,7 @@
         <v>-0.120919869193192</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>76</v>
       </c>
@@ -4810,7 +4821,7 @@
         <v>-0.74728689046100405</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -4878,7 +4889,7 @@
         <v>-0.16823871665814999</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -4946,7 +4957,7 @@
         <v>-0.53538592920516404</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -5014,7 +5025,7 @@
         <v>0.34056326481862997</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>80</v>
       </c>
@@ -5082,7 +5093,7 @@
         <v>0.55054129673466801</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -5150,7 +5161,7 @@
         <v>0.25121241635610297</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>82</v>
       </c>
@@ -5218,7 +5229,7 @@
         <v>-0.67813044608299</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>83</v>
       </c>
@@ -5286,7 +5297,7 @@
         <v>2.3209729281775698E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>84</v>
       </c>
@@ -5354,7 +5365,7 @@
         <v>0.464256070465287</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>85</v>
       </c>
@@ -5422,7 +5433,7 @@
         <v>0.33324295254979203</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>86</v>
       </c>
@@ -5490,7 +5501,7 @@
         <v>0.342543568624048</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>87</v>
       </c>
@@ -5558,7 +5569,7 @@
         <v>-0.55797575800627397</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>88</v>
       </c>
@@ -5626,7 +5637,7 @@
         <v>0.63809328021412903</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>89</v>
       </c>
@@ -5694,7 +5705,7 @@
         <v>-0.48769740265149097</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>90</v>
       </c>
@@ -5762,7 +5773,7 @@
         <v>-0.34450505589917002</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>91</v>
       </c>
@@ -5830,7 +5841,7 @@
         <v>0.217499757521191</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>92</v>
       </c>
@@ -5898,7 +5909,7 @@
         <v>3.7651638238675698E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>93</v>
       </c>
@@ -5966,7 +5977,7 @@
         <v>-0.46612832580699698</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>94</v>
       </c>
@@ -6034,7 +6045,7 @@
         <v>0.40932137912544098</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>95</v>
       </c>
@@ -6102,7 +6113,7 @@
         <v>-0.72985636026419098</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>96</v>
       </c>
@@ -6170,7 +6181,7 @@
         <v>0.65575806220370103</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>97</v>
       </c>
@@ -6238,7 +6249,7 @@
         <v>0.79766304360039497</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -6306,7 +6317,7 @@
         <v>0.849723055925515</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>99</v>
       </c>
@@ -6374,7 +6385,7 @@
         <v>0.38961970408520702</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>100</v>
       </c>
@@ -6442,7 +6453,7 @@
         <v>-0.56593411410502403</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>101</v>
       </c>
@@ -6510,7 +6521,7 @@
         <v>0.87390509508828096</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>102</v>
       </c>
@@ -6578,7 +6589,7 @@
         <v>-0.603185295982956</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>103</v>
       </c>
@@ -6646,7 +6657,7 @@
         <v>0.91733132371535697</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>104</v>
       </c>
@@ -6714,7 +6725,7 @@
         <v>5.6666566871597303E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>105</v>
       </c>
@@ -6782,7 +6793,7 @@
         <v>-1.06676793555101</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>106</v>
       </c>
@@ -6850,7 +6861,7 @@
         <v>-0.39874944568998499</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>107</v>
       </c>
@@ -6918,7 +6929,7 @@
         <v>-0.202993012094004</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>108</v>
       </c>
@@ -6986,7 +6997,7 @@
         <v>-0.21995226518830299</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>109</v>
       </c>
@@ -7054,7 +7065,7 @@
         <v>-0.35921651653824899</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>110</v>
       </c>
@@ -7122,7 +7133,7 @@
         <v>0.144661228984094</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>111</v>
       </c>
@@ -7190,7 +7201,7 @@
         <v>-0.36910642866766302</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>112</v>
       </c>
@@ -7258,7 +7269,7 @@
         <v>-0.60845120698807897</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>113</v>
       </c>
@@ -7326,7 +7337,7 @@
         <v>0.45161365877678</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>114</v>
       </c>
@@ -7394,7 +7405,7 @@
         <v>0.11000548076967299</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>115</v>
       </c>
@@ -7462,7 +7473,7 @@
         <v>0.82242014410864395</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>116</v>
       </c>
@@ -7530,7 +7541,7 @@
         <v>-1.4853188192370801</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>117</v>
       </c>
@@ -7598,7 +7609,7 @@
         <v>-0.88368098721070998</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>118</v>
       </c>
@@ -7666,7 +7677,7 @@
         <v>-0.115169979538618</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>119</v>
       </c>
@@ -7734,7 +7745,7 @@
         <v>8.7450029955216599E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>120</v>
       </c>
@@ -7802,7 +7813,7 @@
         <v>0.433020566668877</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>121</v>
       </c>
@@ -7870,7 +7881,7 @@
         <v>-0.83996834731788195</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>122</v>
       </c>
@@ -7938,7 +7949,7 @@
         <v>-0.58337832855683402</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>123</v>
       </c>
@@ -8006,7 +8017,7 @@
         <v>-0.11116279762404201</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>124</v>
       </c>
@@ -8074,7 +8085,7 @@
         <v>0.59907102370453102</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>125</v>
       </c>
@@ -8142,7 +8153,7 @@
         <v>-1.19640425947466</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>126</v>
       </c>
@@ -8210,7 +8221,7 @@
         <v>0.36306537701061098</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>127</v>
       </c>
@@ -8278,7 +8289,7 @@
         <v>-0.67539098646437001</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>128</v>
       </c>
@@ -8346,7 +8357,7 @@
         <v>-0.98057194923878899</v>
       </c>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>129</v>
       </c>
@@ -8414,7 +8425,7 @@
         <v>-0.31558157197136899</v>
       </c>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>130</v>
       </c>
@@ -8482,7 +8493,7 @@
         <v>-0.31771480168327998</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>131</v>
       </c>
@@ -8550,7 +8561,7 @@
         <v>-0.13013749437102001</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>132</v>
       </c>
@@ -8618,7 +8629,7 @@
         <v>-0.29700896588912001</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>133</v>
       </c>
@@ -8686,7 +8697,7 @@
         <v>-0.62946531373888304</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>134</v>
       </c>
@@ -8754,7 +8765,7 @@
         <v>-0.43184212338362798</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>135</v>
       </c>
@@ -8822,7 +8833,7 @@
         <v>-0.528322353416942</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>136</v>
       </c>
@@ -8890,7 +8901,7 @@
         <v>-0.29872551393881902</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>137</v>
       </c>
@@ -8958,7 +8969,7 @@
         <v>-0.56185590335687297</v>
       </c>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>138</v>
       </c>
@@ -9026,7 +9037,7 @@
         <v>-0.36744303312961801</v>
       </c>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>139</v>
       </c>
@@ -9094,7 +9105,7 @@
         <v>-0.75754256964581601</v>
       </c>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>140</v>
       </c>
@@ -9162,7 +9173,7 @@
         <v>-0.54539368584814396</v>
       </c>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>141</v>
       </c>
@@ -9230,7 +9241,7 @@
         <v>-0.64461595346987499</v>
       </c>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>142</v>
       </c>
@@ -9308,105 +9319,105 @@
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>163</v>
       </c>
@@ -9425,9 +9436,9 @@
       <selection sqref="A1:T124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9489,7 +9500,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -9551,7 +9562,7 @@
         <v>119.3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -9613,7 +9624,7 @@
         <v>109.4</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -9675,7 +9686,7 @@
         <v>112.2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -9737,7 +9748,7 @@
         <v>107.5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -9799,7 +9810,7 @@
         <v>108.4</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -9861,7 +9872,7 @@
         <v>187.2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -9923,7 +9934,7 @@
         <v>137.1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -9985,7 +9996,7 @@
         <v>104.1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -10047,7 +10058,7 @@
         <v>107.5</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -10109,7 +10120,7 @@
         <v>261.2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -10171,7 +10182,7 @@
         <v>175.4</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -10233,7 +10244,7 @@
         <v>256.8</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -10295,7 +10306,7 @@
         <v>162.30000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -10357,7 +10368,7 @@
         <v>156.30000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -10419,7 +10430,7 @@
         <v>354.5</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -10481,7 +10492,7 @@
         <v>195.3</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -10543,7 +10554,7 @@
         <v>273.89999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -10605,7 +10616,7 @@
         <v>239.9</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -10667,7 +10678,7 @@
         <v>198.2</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -10729,7 +10740,7 @@
         <v>205.6</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -10791,7 +10802,7 @@
         <v>166.1</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -10853,7 +10864,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -10915,7 +10926,7 @@
         <v>169.1</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -10977,7 +10988,7 @@
         <v>205.1</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -11039,7 +11050,7 @@
         <v>166.4</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -11101,7 +11112,7 @@
         <v>189.2</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -11163,7 +11174,7 @@
         <v>176.2</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -11225,7 +11236,7 @@
         <v>148.30000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -11287,7 +11298,7 @@
         <v>143.5</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -11349,7 +11360,7 @@
         <v>228.8</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -11411,7 +11422,7 @@
         <v>132.4</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -11473,7 +11484,7 @@
         <v>111.8</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -11535,7 +11546,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -11597,7 +11608,7 @@
         <v>173.9</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -11659,7 +11670,7 @@
         <v>130.5</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -11721,7 +11732,7 @@
         <v>157.1</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -11783,7 +11794,7 @@
         <v>153.30000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -11845,7 +11856,7 @@
         <v>147.69999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -11907,7 +11918,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -11969,7 +11980,7 @@
         <v>115.8</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -12031,7 +12042,7 @@
         <v>123.1</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -12093,7 +12104,7 @@
         <v>163.80000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>62</v>
       </c>
@@ -12155,7 +12166,7 @@
         <v>149.5</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>63</v>
       </c>
@@ -12217,7 +12228,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>64</v>
       </c>
@@ -12279,7 +12290,7 @@
         <v>143.30000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -12341,7 +12352,7 @@
         <v>130.30000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -12403,7 +12414,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>67</v>
       </c>
@@ -12465,7 +12476,7 @@
         <v>201.4</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>68</v>
       </c>
@@ -12527,7 +12538,7 @@
         <v>196.1</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>69</v>
       </c>
@@ -12589,7 +12600,7 @@
         <v>289.7</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>70</v>
       </c>
@@ -12651,7 +12662,7 @@
         <v>228.3</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>71</v>
       </c>
@@ -12713,7 +12724,7 @@
         <v>206.8</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>72</v>
       </c>
@@ -12775,7 +12786,7 @@
         <v>174.3</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>73</v>
       </c>
@@ -12837,7 +12848,7 @@
         <v>263.7</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>74</v>
       </c>
@@ -12899,7 +12910,7 @@
         <v>258.10000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>75</v>
       </c>
@@ -12961,7 +12972,7 @@
         <v>250.5</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>76</v>
       </c>
@@ -13023,7 +13034,7 @@
         <v>190.2</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -13085,7 +13096,7 @@
         <v>190.5</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -13147,7 +13158,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -13209,7 +13220,7 @@
         <v>225.6</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>80</v>
       </c>
@@ -13271,7 +13282,7 @@
         <v>167.6</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -13333,7 +13344,7 @@
         <v>224.9</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>82</v>
       </c>
@@ -13395,7 +13406,7 @@
         <v>160.30000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>83</v>
       </c>
@@ -13457,7 +13468,7 @@
         <v>153.30000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>84</v>
       </c>
@@ -13519,7 +13530,7 @@
         <v>260.8</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>85</v>
       </c>
@@ -13581,7 +13592,7 @@
         <v>329.30000999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>86</v>
       </c>
@@ -13643,7 +13654,7 @@
         <v>195.9</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>87</v>
       </c>
@@ -13705,7 +13716,7 @@
         <v>290.8</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>88</v>
       </c>
@@ -13767,7 +13778,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>89</v>
       </c>
@@ -13829,7 +13840,7 @@
         <v>239.60001</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>90</v>
       </c>
@@ -13891,7 +13902,7 @@
         <v>212.2</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>91</v>
       </c>
@@ -13953,7 +13964,7 @@
         <v>239.6</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>92</v>
       </c>
@@ -14015,7 +14026,7 @@
         <v>235.6</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>93</v>
       </c>
@@ -14077,7 +14088,7 @@
         <v>266.39999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>94</v>
       </c>
@@ -14139,7 +14150,7 @@
         <v>207.4</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>95</v>
       </c>
@@ -14201,7 +14212,7 @@
         <v>300.00000999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>96</v>
       </c>
@@ -14263,7 +14274,7 @@
         <v>149.19999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>97</v>
       </c>
@@ -14325,7 +14336,7 @@
         <v>196.8</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -14387,7 +14398,7 @@
         <v>174.9</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>99</v>
       </c>
@@ -14449,7 +14460,7 @@
         <v>198.8</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>100</v>
       </c>
@@ -14511,7 +14522,7 @@
         <v>126.4</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>101</v>
       </c>
@@ -14573,7 +14584,7 @@
         <v>183.7</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>102</v>
       </c>
@@ -14635,7 +14646,7 @@
         <v>239.3</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>103</v>
       </c>
@@ -14697,7 +14708,7 @@
         <v>208.3</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>104</v>
       </c>
@@ -14759,7 +14770,7 @@
         <v>108.1</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>105</v>
       </c>
@@ -14821,7 +14832,7 @@
         <v>172.5</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>106</v>
       </c>
@@ -14883,7 +14894,7 @@
         <v>134.80000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>107</v>
       </c>
@@ -14945,7 +14956,7 @@
         <v>158.19999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>108</v>
       </c>
@@ -15007,7 +15018,7 @@
         <v>206.3</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>109</v>
       </c>
@@ -15069,7 +15080,7 @@
         <v>204.9</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>110</v>
       </c>
@@ -15131,7 +15142,7 @@
         <v>173.9</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>111</v>
       </c>
@@ -15193,7 +15204,7 @@
         <v>136.4</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>112</v>
       </c>
@@ -15255,7 +15266,7 @@
         <v>110.1</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>113</v>
       </c>
@@ -15317,7 +15328,7 @@
         <v>229.8</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>114</v>
       </c>
@@ -15379,7 +15390,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>115</v>
       </c>
@@ -15441,7 +15452,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>116</v>
       </c>
@@ -15503,7 +15514,7 @@
         <v>181.3</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>117</v>
       </c>
@@ -15565,7 +15576,7 @@
         <v>168.9</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>118</v>
       </c>
@@ -15627,7 +15638,7 @@
         <v>158.6</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>119</v>
       </c>
@@ -15689,7 +15700,7 @@
         <v>122.6</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>120</v>
       </c>
@@ -15751,7 +15762,7 @@
         <v>161.4</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>121</v>
       </c>
@@ -15813,7 +15824,7 @@
         <v>96.1</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>122</v>
       </c>
@@ -15875,7 +15886,7 @@
         <v>202.2</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>123</v>
       </c>
@@ -15937,7 +15948,7 @@
         <v>134.4</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>124</v>
       </c>
@@ -15999,7 +16010,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>125</v>
       </c>
@@ -16061,7 +16072,7 @@
         <v>161.4</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>126</v>
       </c>
@@ -16123,7 +16134,7 @@
         <v>184.6</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>127</v>
       </c>
@@ -16185,7 +16196,7 @@
         <v>297.8</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>128</v>
       </c>
@@ -16247,7 +16258,7 @@
         <v>193.9</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>129</v>
       </c>
@@ -16309,7 +16320,7 @@
         <v>211.1</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>130</v>
       </c>
@@ -16371,7 +16382,7 @@
         <v>212.2</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>131</v>
       </c>
@@ -16433,7 +16444,7 @@
         <v>172.2</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>132</v>
       </c>
@@ -16495,7 +16506,7 @@
         <v>166.8</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>133</v>
       </c>
@@ -16557,7 +16568,7 @@
         <v>205.1</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>134</v>
       </c>
@@ -16619,7 +16630,7 @@
         <v>215.6</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>135</v>
       </c>
@@ -16681,7 +16692,7 @@
         <v>192.5</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>136</v>
       </c>
@@ -16743,7 +16754,7 @@
         <v>211.5</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>137</v>
       </c>
@@ -16805,7 +16816,7 @@
         <v>228.7</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>138</v>
       </c>
@@ -16867,7 +16878,7 @@
         <v>218.5</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>139</v>
       </c>
@@ -16929,7 +16940,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>140</v>
       </c>
@@ -16991,7 +17002,7 @@
         <v>265.2</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>141</v>
       </c>
@@ -17053,7 +17064,7 @@
         <v>223.9</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>142</v>
       </c>
